--- a/data/trans_camb/P14B23-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Habitat-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,28</t>
+          <t>-1,64; 1,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,9</t>
+          <t>1,67; 5,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,43</t>
+          <t>-4,2; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,31</t>
+          <t>-5,58; -0,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,17</t>
+          <t>-2,23; 1,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,37</t>
+          <t>-1,14; 2,27</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 109,75</t>
+          <t>-58,57; 104,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,32; 450,03</t>
+          <t>51,36; 424,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 34,58</t>
+          <t>-39,91; 23,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,37; -3,39</t>
+          <t>-50,95; -1,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,23; 24,75</t>
+          <t>-35,29; 24,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 50,92</t>
+          <t>-17,96; 49,38</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -0,08</t>
+          <t>-2,6; -0,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 0,77</t>
+          <t>-2,57; 0,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 0,31</t>
+          <t>-4,33; 0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 1,31</t>
+          <t>-3,17; 1,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; -0,23</t>
+          <t>-3,04; -0,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 0,25</t>
+          <t>-2,94; 0,23</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,33; -1,17</t>
+          <t>-69,55; 4,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,42; 36,69</t>
+          <t>-67,51; 32,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 4,9</t>
+          <t>-47,06; 2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 19,9</t>
+          <t>-33,79; 17,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,68; -5,09</t>
+          <t>-48,16; -5,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 3,68</t>
+          <t>-46,9; 3,77</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,92</t>
+          <t>-1,54; 1,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,62</t>
+          <t>-0,74; 3,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,11</t>
+          <t>-3,01; 2,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,31</t>
+          <t>-4,61; 3,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,34</t>
+          <t>-1,78; 1,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,63</t>
+          <t>-1,29; 2,56</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 159,05</t>
+          <t>-51,37; 153,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 283,24</t>
+          <t>-26,82; 243,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 38,4</t>
+          <t>-35,61; 36,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,59; 50,76</t>
+          <t>-52,52; 52,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,66; 35,54</t>
+          <t>-32,31; 37,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 64,81</t>
+          <t>-23,78; 60,75</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 0,75</t>
+          <t>-1,99; 0,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,54</t>
+          <t>-0,16; 3,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,09</t>
+          <t>-3,86; 0,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,51</t>
+          <t>-2,81; 2,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 0,35</t>
+          <t>-2,33; 0,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,3</t>
+          <t>-0,58; 2,44</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 42,02</t>
+          <t>-56,24; 46,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 176,28</t>
+          <t>-6,06; 166,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 16,71</t>
+          <t>-42,4; 11,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 37,55</t>
+          <t>-30,34; 31,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 8,13</t>
+          <t>-38,59; 9,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 47,61</t>
+          <t>-10,04; 51,55</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,18</t>
+          <t>-1,27; 0,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,07</t>
+          <t>0,1; 2,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,63; -0,02</t>
+          <t>-2,56; -0,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,45</t>
+          <t>-2,49; 0,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,2</t>
+          <t>-1,64; -0,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,97</t>
+          <t>-0,78; 1,0</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 9,1</t>
+          <t>-42,96; 13,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,76; 99,01</t>
+          <t>3,49; 99,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,25; -0,18</t>
+          <t>-29,62; -0,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,18; 6,02</t>
+          <t>-28,88; 6,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,7; -4,15</t>
+          <t>-28,95; -3,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 19,28</t>
+          <t>-13,6; 20,39</t>
         </is>
       </c>
     </row>
